--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -2101,7 +2101,7 @@
         <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>109</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -341,7 +341,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -359,6 +359,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -381,6 +393,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -439,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,7 +472,7 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2181,7 +2205,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>109</v>
@@ -2201,7 +2225,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>109</v>
@@ -2230,6 +2254,86 @@
         <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
+  </si>
+  <si>
     <t>evento.padre.recapito</t>
   </si>
   <si>
@@ -405,6 +417,15 @@
   </si>
   <si>
     <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Riconoscimento da genitore italiano</t>
+  </si>
+  <si>
+    <t>genitoreConCittadinanza</t>
   </si>
 </sst>
 </file>
@@ -463,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -475,6 +496,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,45 +518,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -556,1785 +587,2078 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.6</t>
+    <t>193.15</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -102,18 +102,6 @@
   </si>
   <si>
     <t>esitoAccertamento</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
   </si>
   <si>
     <t>Tipo Evento Cittadinanza</t>
@@ -484,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -740,10 +728,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -754,19 +742,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -777,19 +765,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -800,16 +788,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -823,7 +811,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
@@ -832,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -846,16 +834,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -869,7 +857,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -878,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -892,7 +880,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -901,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -915,16 +903,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -938,16 +926,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -961,16 +949,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -984,16 +972,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -1007,16 +995,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1030,16 +1018,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1053,7 +1041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1062,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1076,7 +1064,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1085,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1099,16 +1087,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1122,16 +1110,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1145,16 +1133,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1168,16 +1156,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1191,16 +1179,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1214,16 +1202,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1237,16 +1225,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1260,7 +1248,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1269,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1283,108 +1271,108 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>47</v>
@@ -1393,21 +1381,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>49</v>
@@ -1416,21 +1404,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>51</v>
@@ -1439,21 +1427,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>53</v>
@@ -1462,21 +1450,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>55</v>
@@ -1485,21 +1473,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>57</v>
@@ -1508,21 +1496,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>59</v>
@@ -1531,21 +1519,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>61</v>
@@ -1554,21 +1542,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>63</v>
@@ -1577,21 +1565,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>65</v>
@@ -1600,21 +1588,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>67</v>
@@ -1623,21 +1611,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>69</v>
@@ -1646,21 +1634,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>71</v>
@@ -1669,21 +1657,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>73</v>
@@ -1692,21 +1680,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -1715,21 +1703,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>77</v>
@@ -1738,21 +1726,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>79</v>
@@ -1761,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>80</v>
@@ -1775,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>81</v>
@@ -1784,136 +1772,136 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
@@ -1922,21 +1910,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -1945,21 +1933,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1968,21 +1956,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1991,21 +1979,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -2014,21 +2002,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -2037,21 +2025,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -2060,21 +2048,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -2083,21 +2071,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -2106,21 +2094,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -2129,21 +2117,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2152,21 +2140,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -2175,21 +2163,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -2198,21 +2186,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -2221,21 +2209,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -2244,21 +2232,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -2267,21 +2255,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -2290,12 +2278,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
@@ -2304,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -2313,30 +2301,30 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
@@ -2344,22 +2332,22 @@
         <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -2367,36 +2355,36 @@
         <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>114</v>
@@ -2410,7 +2398,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>115</v>
@@ -2419,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>116</v>
@@ -2433,7 +2421,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
@@ -2442,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>118</v>
@@ -2456,16 +2444,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>120</v>
@@ -2479,16 +2467,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>122</v>
@@ -2502,16 +2490,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>124</v>
@@ -2525,16 +2513,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>126</v>
@@ -2548,16 +2536,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>128</v>
@@ -2571,16 +2559,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>130</v>
@@ -2594,70 +2582,24 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di acquisizione di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.15</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di acquisizione di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.15</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -576,2031 +579,2031 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -269,7 +269,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -332,7 +332,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1</t>
   </si>
   <si>
     <t>evento.padre.recapito</t>
@@ -487,7 +487,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1004,7 +1010,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1096,7 +1102,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1211,7 +1217,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1274,283 +1280,283 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>94</v>
@@ -1559,21 +1565,21 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>95</v>
@@ -1582,67 +1588,67 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>98</v>
@@ -1651,21 +1657,21 @@
         <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>99</v>
@@ -1674,21 +1680,21 @@
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>100</v>
@@ -1697,297 +1703,297 @@
         <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>90</v>
@@ -1996,21 +2002,21 @@
         <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2019,401 +2025,401 @@
         <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2585,24 +2591,93 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,6 +251,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -321,6 +345,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -481,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -491,7 +521,7 @@
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.71875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1240,7 +1270,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1263,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1286,7 +1316,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1303,858 +1333,858 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
@@ -2163,21 +2193,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2186,21 +2216,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2209,21 +2239,21 @@
         <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
@@ -2232,21 +2262,21 @@
         <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
@@ -2255,21 +2285,21 @@
         <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>101</v>
@@ -2278,406 +2308,728 @@
         <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -143,6 +143,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -320,10 +326,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -856,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -948,7 +951,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1063,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1155,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1362,7 +1365,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -1425,191 +1428,191 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
@@ -1618,21 +1621,21 @@
         <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
@@ -1641,1206 +1644,1206 @@
         <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,24 +3015,93 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1135,7 +1141,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1158,7 +1164,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1388,7 +1394,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
@@ -1451,375 +1457,375 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>107</v>
@@ -1828,21 +1834,21 @@
         <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
@@ -1851,21 +1857,21 @@
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
@@ -1874,21 +1880,21 @@
         <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1897,21 +1903,21 @@
         <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -1920,435 +1926,435 @@
         <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
@@ -2357,21 +2363,21 @@
         <v>36</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>103</v>
@@ -2380,113 +2386,113 @@
         <v>36</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>106</v>
@@ -2495,323 +2501,323 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>36</v>
@@ -2820,99 +2826,99 @@
         <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,24 +3090,93 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1805,7 +1811,7 @@
         <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
@@ -1814,7 +1820,7 @@
         <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,7 +1834,7 @@
         <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>36</v>
@@ -1837,7 +1843,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,7 +1857,7 @@
         <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>36</v>
@@ -1860,7 +1866,7 @@
         <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,7 +1880,7 @@
         <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>36</v>
@@ -1883,7 +1889,7 @@
         <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,7 +1903,7 @@
         <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>36</v>
@@ -1906,7 +1912,7 @@
         <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,7 +1926,7 @@
         <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>36</v>
@@ -1929,7 +1935,7 @@
         <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,7 +1949,7 @@
         <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
@@ -1952,7 +1958,7 @@
         <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,7 +1972,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>36</v>
@@ -1975,7 +1981,7 @@
         <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,16 +1995,16 @@
         <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,7 +2018,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -2021,7 +2027,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,7 +2041,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2044,7 +2050,7 @@
         <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,16 +2064,16 @@
         <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,7 +2087,7 @@
         <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>36</v>
@@ -2090,7 +2096,7 @@
         <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,7 +2110,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
@@ -2113,7 +2119,7 @@
         <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,7 +2133,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>36</v>
@@ -2136,7 +2142,7 @@
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,7 +2156,7 @@
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>36</v>
@@ -2159,7 +2165,7 @@
         <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,10 +2185,10 @@
         <v>36</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,352 +2199,352 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>107</v>
@@ -2547,44 +2553,44 @@
         <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>109</v>
@@ -2593,21 +2599,21 @@
         <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>110</v>
@@ -2616,21 +2622,21 @@
         <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>
@@ -2639,21 +2645,21 @@
         <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>112</v>
@@ -2662,21 +2668,21 @@
         <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>113</v>
@@ -2685,208 +2691,208 @@
         <v>36</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>36</v>
@@ -2895,76 +2901,76 @@
         <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,24 +3165,70 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,81 @@
   </si>
   <si>
     <t>evento.padre.recapito</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -526,13 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
@@ -2964,7 +3039,7 @@
         <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>127</v>
@@ -2976,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
@@ -2984,22 +3059,22 @@
         <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
@@ -3007,22 +3082,22 @@
         <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
@@ -3030,22 +3105,22 @@
         <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
@@ -3053,22 +3128,22 @@
         <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
@@ -3076,7 +3151,7 @@
         <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -3085,13 +3160,13 @@
         <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
@@ -3114,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
@@ -3131,13 +3206,13 @@
         <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
@@ -3145,7 +3220,7 @@
         <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>36</v>
@@ -3154,13 +3229,13 @@
         <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
@@ -3168,7 +3243,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>36</v>
@@ -3177,13 +3252,13 @@
         <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
@@ -3191,7 +3266,7 @@
         <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>36</v>
@@ -3200,35 +3275,311 @@
         <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -601,14 +607,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1498,7 +1504,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -1561,559 +1567,559 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>93</v>
@@ -2122,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>94</v>
@@ -2131,12 +2137,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>95</v>
@@ -2145,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>96</v>
@@ -2154,127 +2160,127 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>118</v>
@@ -2283,573 +2289,573 @@
         <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -2858,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>94</v>
@@ -2867,12 +2873,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>95</v>
@@ -2881,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>96</v>
@@ -2890,127 +2896,127 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>118</v>
@@ -3022,64 +3028,64 @@
         <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>132</v>
@@ -3088,7 +3094,7 @@
         <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>133</v>
@@ -3097,12 +3103,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>134</v>
@@ -3111,7 +3117,7 @@
         <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>135</v>
@@ -3120,12 +3126,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>136</v>
@@ -3134,7 +3140,7 @@
         <v>36</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>137</v>
@@ -3143,12 +3149,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>138</v>
@@ -3157,44 +3163,44 @@
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>141</v>
@@ -3203,44 +3209,44 @@
         <v>36</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>144</v>
@@ -3249,7 +3255,7 @@
         <v>36</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>145</v>
@@ -3258,12 +3264,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>146</v>
@@ -3272,7 +3278,7 @@
         <v>36</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>147</v>
@@ -3281,12 +3287,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>148</v>
@@ -3295,7 +3301,7 @@
         <v>36</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>149</v>
@@ -3304,44 +3310,44 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>155</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -3364,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>157</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
@@ -3387,7 +3393,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>159</v>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>160</v>
@@ -3410,7 +3416,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>161</v>
@@ -3424,16 +3430,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>163</v>
@@ -3447,7 +3453,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>164</v>
@@ -3456,7 +3462,7 @@
         <v>36</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>165</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>166</v>
@@ -3479,7 +3485,7 @@
         <v>36</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>167</v>
@@ -3493,7 +3499,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>168</v>
@@ -3502,7 +3508,7 @@
         <v>36</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>169</v>
@@ -3516,7 +3522,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>170</v>
@@ -3525,7 +3531,7 @@
         <v>36</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>171</v>
@@ -3539,7 +3545,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>172</v>
@@ -3548,7 +3554,7 @@
         <v>36</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>173</v>
@@ -3562,24 +3568,47 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,12 +285,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -607,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1504,7 +1498,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -1567,559 +1561,559 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>93</v>
@@ -2128,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>94</v>
@@ -2137,12 +2131,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>95</v>
@@ -2151,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>96</v>
@@ -2160,127 +2154,127 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>118</v>
@@ -2289,573 +2283,573 @@
         <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -2864,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>94</v>
@@ -2873,12 +2867,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>95</v>
@@ -2887,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>96</v>
@@ -2896,127 +2890,127 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>118</v>
@@ -3028,64 +3022,64 @@
         <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>132</v>
@@ -3094,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>133</v>
@@ -3103,12 +3097,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>134</v>
@@ -3117,7 +3111,7 @@
         <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>135</v>
@@ -3126,12 +3120,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>136</v>
@@ -3140,7 +3134,7 @@
         <v>36</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>137</v>
@@ -3149,12 +3143,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>138</v>
@@ -3163,44 +3157,44 @@
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>141</v>
@@ -3209,44 +3203,44 @@
         <v>36</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>144</v>
@@ -3255,7 +3249,7 @@
         <v>36</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>145</v>
@@ -3264,12 +3258,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>146</v>
@@ -3278,7 +3272,7 @@
         <v>36</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>147</v>
@@ -3287,12 +3281,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>148</v>
@@ -3301,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>149</v>
@@ -3310,44 +3304,44 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>155</v>
@@ -3361,7 +3355,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -3370,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>157</v>
@@ -3384,7 +3378,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
@@ -3393,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>159</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>160</v>
@@ -3416,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>161</v>
@@ -3430,16 +3424,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>163</v>
@@ -3453,7 +3447,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>164</v>
@@ -3462,7 +3456,7 @@
         <v>36</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>165</v>
@@ -3476,7 +3470,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>166</v>
@@ -3485,7 +3479,7 @@
         <v>36</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>167</v>
@@ -3499,7 +3493,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>168</v>
@@ -3508,7 +3502,7 @@
         <v>36</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>169</v>
@@ -3522,7 +3516,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>170</v>
@@ -3531,7 +3525,7 @@
         <v>36</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>171</v>
@@ -3545,7 +3539,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>172</v>
@@ -3554,7 +3548,7 @@
         <v>36</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>173</v>
@@ -3568,47 +3562,24 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -998,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1021,7 +1033,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1067,7 +1079,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1090,7 +1102,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1182,7 +1194,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1205,7 +1217,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1228,7 +1240,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1251,7 +1263,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1527,7 +1539,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1550,7 +1562,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
@@ -1590,421 +1602,421 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>113</v>
@@ -2013,44 +2025,44 @@
         <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -2059,21 +2071,21 @@
         <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -2082,21 +2094,21 @@
         <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -2105,550 +2117,550 @@
         <v>36</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>109</v>
@@ -2657,44 +2669,44 @@
         <v>36</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>111</v>
@@ -2703,361 +2715,361 @@
         <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
@@ -3065,22 +3077,22 @@
         <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="108">
@@ -3088,22 +3100,22 @@
         <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="109">
@@ -3111,22 +3123,22 @@
         <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="110">
@@ -3134,22 +3146,22 @@
         <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111">
@@ -3157,22 +3169,22 @@
         <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112">
@@ -3180,315 +3192,315 @@
         <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,24 +3603,162 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>
